--- a/suitesNames/suiteNames.xlsx
+++ b/suitesNames/suiteNames.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="140">
   <si>
     <t>This document was exported from Numbers.  Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -461,6 +461,9 @@
   </si>
   <si>
     <t>/test-output/capital_bank_ui_smokejfVprePVnSnWSfmx.html</t>
+  </si>
+  <si>
+    <t>/test-output/capital_bank_ui_smokedJpGLqLGUkWIJBlW.html</t>
   </si>
 </sst>
 </file>
@@ -2081,7 +2084,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C2" s="27" t="s">
         <v>19</v>

--- a/suitesNames/suiteNames.xlsx
+++ b/suitesNames/suiteNames.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="143">
   <si>
     <t>This document was exported from Numbers.  Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -464,6 +464,15 @@
   </si>
   <si>
     <t>/test-output/capital_bank_ui_smokedJpGLqLGUkWIJBlW.html</t>
+  </si>
+  <si>
+    <t>/test-output/capital_bank_ui_smokeztBdMYMGggUfJuBh.html</t>
+  </si>
+  <si>
+    <t>/target/capital_bank_ui_smokeibDWHXgwHIuajwZx.html</t>
+  </si>
+  <si>
+    <t>/target/capital_bank_ui_smokeVrrUHoRjTxKTnsYB.html</t>
   </si>
 </sst>
 </file>
@@ -2084,7 +2093,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C2" s="27" t="s">
         <v>19</v>

--- a/suitesNames/suiteNames.xlsx
+++ b/suitesNames/suiteNames.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="315">
   <si>
     <t>This document was exported from Numbers.  Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -473,6 +473,522 @@
   </si>
   <si>
     <t>/target/capital_bank_ui_smokeVrrUHoRjTxKTnsYB.html</t>
+  </si>
+  <si>
+    <t>/target/capital_bank_ui_smokeKYvtJBuhMbVrWVGj.html</t>
+  </si>
+  <si>
+    <t>/target/capital_bank_ui_smokebzaihshGrncnZnXw.html</t>
+  </si>
+  <si>
+    <t>/target/capital_bank_ui_smokechAubQSTSimwPuaX.html</t>
+  </si>
+  <si>
+    <t>/target/capital_bank_ui_smokeEYysfqZoQYtFOPfU.html</t>
+  </si>
+  <si>
+    <t>/target/capital_bank_ui_smokeOSIVHKBCaBajsRHl.html</t>
+  </si>
+  <si>
+    <t>/target/capital_bank_ui_smokejNizajfHyceQSYMX.html</t>
+  </si>
+  <si>
+    <t>/target/capital_bank_ui_smokeOTKshtGcaJiBaniV.html</t>
+  </si>
+  <si>
+    <t>/target/capital_bank_ui_smokeqdJBZTnLxblqMaWt.html</t>
+  </si>
+  <si>
+    <t>/target/capital_bank_ui_smoketrZvIHqVkXgVrZcj.html</t>
+  </si>
+  <si>
+    <t>/target/capital_bank_ui_smokeQyKGgFFUJTjHgyRb.html</t>
+  </si>
+  <si>
+    <t>/target/capital_bank_ui_smokeGkfgepvxqXQsFNNP.html</t>
+  </si>
+  <si>
+    <t>/target/capital_bank_ui_smokerpmdVNKXWsDirovp.html</t>
+  </si>
+  <si>
+    <t>/target/capital_bank_ui_smokeQHJSZrVmuKjAhWVK.html</t>
+  </si>
+  <si>
+    <t>/target/capital_bank_ui_smokexLgHhPmiAszDjoXQ.html</t>
+  </si>
+  <si>
+    <t>/target/capital_bank_ui_smokePPuQpPgSurtmPIAm.html</t>
+  </si>
+  <si>
+    <t>/target/capital_bank_ui_smokeXirssUjloNZcfhYb.html</t>
+  </si>
+  <si>
+    <t>/target/capital_bank_ui_smokejLFDxLoLCbvydnGN.html</t>
+  </si>
+  <si>
+    <t>/target/capital_bank_ui_smokejyYAujlnOsODUvpf.html</t>
+  </si>
+  <si>
+    <t>/target/capital_bank_ui_smokeDsEBsHHsdUIXCHyo.html</t>
+  </si>
+  <si>
+    <t>/target/capital_bank_ui_smokeIIQdGwWDbKgbtSHd.html</t>
+  </si>
+  <si>
+    <t>/target/capital_bank_ui_smokeWUvxAYVdnmzQeUPQ.html</t>
+  </si>
+  <si>
+    <t>/target/capital_bank_ui_smokeQBxifpjpBgGMHyPX.html</t>
+  </si>
+  <si>
+    <t>/target/capital_bank_ui_smokefrzWPvfHaxjHCrxk.html</t>
+  </si>
+  <si>
+    <t>/target/capital_bank_ui_smokeaVQiNKVSvjAPRMYd.html</t>
+  </si>
+  <si>
+    <t>/target/capital_bank_ui_smokeaaefUdGTWMeVyWqn.html</t>
+  </si>
+  <si>
+    <t>/target/capital_bank_ui_smokeIxQqXPGHqcPTeein.html</t>
+  </si>
+  <si>
+    <t>/target/capital_bank_ui_smokeEwViXDXtoCjxwoOH.html</t>
+  </si>
+  <si>
+    <t>/target/capital_bank_ui_smokeyrJXIgPfqhMzISHt.html</t>
+  </si>
+  <si>
+    <t>/target/capital_bank_ui_smokezpgVGxZnObVnwhZz.html</t>
+  </si>
+  <si>
+    <t>/target/capital_bank_ui_smokeSGFOHywnUDtSIVCj.html</t>
+  </si>
+  <si>
+    <t>/target/capital_bank_ui_smokeOmowkFnhbgHXbBoQ.html</t>
+  </si>
+  <si>
+    <t>/target/capital_bank_ui_smokeHbqHljLQKrBbSwzf.html</t>
+  </si>
+  <si>
+    <t>/target/capital_bank_ui_smokeNmsoJNeksAKYwWdW.html</t>
+  </si>
+  <si>
+    <t>/target/capital_bank_ui_smokejLwElGwmzSwTDBrV.html</t>
+  </si>
+  <si>
+    <t>/target/capital_bank_ui_smokeStzrqVynfJOmBftc.html</t>
+  </si>
+  <si>
+    <t>/target/capital_bank_ui_smokeLpAxlNxKtsxpZMKS.html</t>
+  </si>
+  <si>
+    <t>/target/capital_bank_ui_smokeCfJDlfirOIaFnfjn.html</t>
+  </si>
+  <si>
+    <t>/target/capital_bank_ui_smokeWFgpAIZpMTGMUmtC.html</t>
+  </si>
+  <si>
+    <t>/target/capital_bank_ui_smokeHxrYOsZprQSnwvEp.html</t>
+  </si>
+  <si>
+    <t>/target/capital_bank_ui_smokebAkrOODUFNwqFsIH.html</t>
+  </si>
+  <si>
+    <t>/target/capital_bank_ui_smokeqtlgYuyQHxNwCNmt.html</t>
+  </si>
+  <si>
+    <t>/target/capital_bank_ui_smokeSmFDwETOswBdqUuo.html</t>
+  </si>
+  <si>
+    <t>/target/capital_bank_ui_smokexPmRxbkXTSJQggVS.html</t>
+  </si>
+  <si>
+    <t>/target/capital_bank_ui_smokeNdcjSuWQszufFFIi.html</t>
+  </si>
+  <si>
+    <t>/target/capital_bank_ui_smokefOpJhueTpODvqCoy.html</t>
+  </si>
+  <si>
+    <t>/target/capital_bank_ui_smokeXETDxcYDjzcBKSTV.html</t>
+  </si>
+  <si>
+    <t>/target/capital_bank_ui_smokexRpovYMfTALhQaNL.html</t>
+  </si>
+  <si>
+    <t>/target/capital_bank_ui_smokedCvHYhiISTBQGozV.html</t>
+  </si>
+  <si>
+    <t>/target/capital_bank_ui_smokefSZTrrIIPUrQNwTL.html</t>
+  </si>
+  <si>
+    <t>/target/capital_bank_ui_smokeohpBcQtQADsIogKt.html</t>
+  </si>
+  <si>
+    <t>/target/capital_bank_ui_smokelwkTAAVOVQbthkVU.html</t>
+  </si>
+  <si>
+    <t>/target/capital_bank_ui_smokeLwZRyZBYoCBFiSzs.html</t>
+  </si>
+  <si>
+    <t>/target/capital_bank_ui_smokevOwmXKTWDSsgvWbR.html</t>
+  </si>
+  <si>
+    <t>/target/capital_bank_ui_smokewLXnTspvVIaqHiDS.html</t>
+  </si>
+  <si>
+    <t>/target/capital_bank_api_travelInsuranceHqxmlOZBuBxfWjng.html</t>
+  </si>
+  <si>
+    <t>/target/capital_bank_api_travelInsuranceDUHVRMCPsbWoNnEX.html</t>
+  </si>
+  <si>
+    <t>/target/capital_bank_api_travelInsuranceqPKSzhvuFJTixIyA.html</t>
+  </si>
+  <si>
+    <t>/target/capital_bank_api_travelInsurancezCYKsVxilIZtdPeH.html</t>
+  </si>
+  <si>
+    <t>/target/capital_bank_api_travelInsuranceRolOQZHwHxufmgzA.html</t>
+  </si>
+  <si>
+    <t>/target/capital_bank_api_travelInsuranceAhmDXrnEUWzsukpq.html</t>
+  </si>
+  <si>
+    <t>/target/capital_bank_api_travelInsurancerjZCOSxdkrMCqcFG.html</t>
+  </si>
+  <si>
+    <t>/target/capital_bank_api_travelInsurancehjEUrAnlbiYFFdAL.html</t>
+  </si>
+  <si>
+    <t>/target/capital_bank_api_travelInsuranceIPSotNzMPjWLdPyp.html</t>
+  </si>
+  <si>
+    <t>/target/capital_bank_api_travelInsuranceRvsHXTfniQCaMiyG.html</t>
+  </si>
+  <si>
+    <t>/target/capital_bank_api_travelInsuranceieCRyFgeTrJdvAqb.html</t>
+  </si>
+  <si>
+    <t>/target/capital_bank_api_travelInsurancecsGagLEyTSczOOkZ.html</t>
+  </si>
+  <si>
+    <t>/target/capital_bank_api_travelInsurancemsrWiaIVHqoEoVbS.html</t>
+  </si>
+  <si>
+    <t>/target/capital_bank_api_travelInsuranceLLgjqAzdsLCDJcSj.html</t>
+  </si>
+  <si>
+    <t>/target/capital_bank_api_travelInsuranceeWHdIbneLddpHVNX.html</t>
+  </si>
+  <si>
+    <t>/target/capital_bank_api_travelInsuranceKQDWeKOzdakAqaZd.html</t>
+  </si>
+  <si>
+    <t>/target/capital_bank_api_travelInsuranceCvkstuoOVDOrdwmS.html</t>
+  </si>
+  <si>
+    <t>/target/capital_bank_api_travelInsuranceoFDuYpfAnxGbrdIe.html</t>
+  </si>
+  <si>
+    <t>/target/capital_bank_api_travelInsuranceQtKhKVuQiHBrWUMo.html</t>
+  </si>
+  <si>
+    <t>/target/capital_bank_api_travelInsuranceKKxxvrumxuoyjrNW.html</t>
+  </si>
+  <si>
+    <t>/target/capital_bank_api_travelInsurancekisJXuOLlcelnUyj.html</t>
+  </si>
+  <si>
+    <t>/target/capital_bank_api_travelInsuranceqdOpsLTihzttUAAy.html</t>
+  </si>
+  <si>
+    <t>/target/capital_bank_api_travelInsuranceRivhRTTjcTaUMYkr.html</t>
+  </si>
+  <si>
+    <t>/target/capital_bank_api_travelInsuranceahzVlqqppozZuPXK.html</t>
+  </si>
+  <si>
+    <t>/target/capital_bank_api_travelInsuranceOLKnPNBLmlFztNiV.html</t>
+  </si>
+  <si>
+    <t>/target/capital_bank_api_travelInsurancessHwuYTwVCZFMTWL.html</t>
+  </si>
+  <si>
+    <t>/target/capital_bank_api_travelInsuranceyRRGlNQomfQzgOsX.html</t>
+  </si>
+  <si>
+    <t>/target/capital_bank_api_travelInsurancebMxrGQCYuFThomFx.html</t>
+  </si>
+  <si>
+    <t>/target/capital_bank_api_travelInsurancerwFVssVOPmYrwiTh.html</t>
+  </si>
+  <si>
+    <t>/target/capital_bank_api_travelInsuranceGDLwybxDTyFhsquO.html</t>
+  </si>
+  <si>
+    <t>/target/capital_bank_api_travelInsuranceXHxcHPkKxqNnhUPn.html</t>
+  </si>
+  <si>
+    <t>/target/capital_bank_api_travelInsuranceMZPziMTHbdOFfJjZ.html</t>
+  </si>
+  <si>
+    <t>/target/capital_bank_api_travelInsuranceWrAJNPeRzLiwANxG.html</t>
+  </si>
+  <si>
+    <t>/target/capital_bank_api_travelInsuranceIWergPaEyUBYZWil.html</t>
+  </si>
+  <si>
+    <t>/target/capital_bank_api_travelInsurancenFURiIgEDXPfFKSr.html</t>
+  </si>
+  <si>
+    <t>/target/capital_bank_api_travelInsuranceVrSTjlWATTLDBgWg.html</t>
+  </si>
+  <si>
+    <t>/target/capital_bank_api_travelInsurancewLnVQcDuPEUWzIAo.html</t>
+  </si>
+  <si>
+    <t>/target/capital_bank_api_travelInsurancePJTegJpEzOwDbMNk.html</t>
+  </si>
+  <si>
+    <t>/target/capital_bank_api_travelInsurancegSmXBiraDkGWxwjh.html</t>
+  </si>
+  <si>
+    <t>/target/capital_bank_api_travelInsuranceFBgZVdRsHkoefRnS.html</t>
+  </si>
+  <si>
+    <t>/target/capital_bank_api_travelInsurancexRUbSAiKYeaxBecs.html</t>
+  </si>
+  <si>
+    <t>/target/capital_bank_api_travelInsuranceErChuJPOhfoxjAHq.html</t>
+  </si>
+  <si>
+    <t>/target/capital_bank_api_travelInsurancehfEbxFJQAPXOrCAx.html</t>
+  </si>
+  <si>
+    <t>/target/capital_bank_api_travelInsuranceskjYJPqPvcjfXUSE.html</t>
+  </si>
+  <si>
+    <t>/target/capital_bank_api_travelInsuranceTTshEiIYgGSCUDWB.html</t>
+  </si>
+  <si>
+    <t>/target/capital_bank_api_travelInsuranceLcrqraKJvNGkwBCd.html</t>
+  </si>
+  <si>
+    <t>/target/capital_bank_api_travelInsurancepmUGQVHNasyqIBsW.html</t>
+  </si>
+  <si>
+    <t>/target/capital_bank_api_travelInsurancerSQsDKrJhkwVbSPQ.html</t>
+  </si>
+  <si>
+    <t>/target/capital_bank_api_travelInsuranceFQnuGyLNWvSEfPTJ.html</t>
+  </si>
+  <si>
+    <t>/target/find_orchards_apiXjUueptbMivwEUjf.html</t>
+  </si>
+  <si>
+    <t>/target/find_orchards_apinPvkwOsTuSuKDykj.html</t>
+  </si>
+  <si>
+    <t>/target/find_orchards_apiDsMkcbRJqNePiWGH.html</t>
+  </si>
+  <si>
+    <t>/target/find_orchards_apiJFbIGRGIdYPToEIy.html</t>
+  </si>
+  <si>
+    <t>/target/find_orchards_apiUgRoYYjXCcxLFtcz.html</t>
+  </si>
+  <si>
+    <t>/target/find_orchards_apijNUHIbPiUBHOMooj.html</t>
+  </si>
+  <si>
+    <t>/target/find_orchards_apiKcAczgFFUJuCvGnx.html</t>
+  </si>
+  <si>
+    <t>/target/find_orchards_apivxBICGulsMntcaxT.html</t>
+  </si>
+  <si>
+    <t>/target/find_orchards_apiLfoyTSewOJPLIKQT.html</t>
+  </si>
+  <si>
+    <t>/target/find_orchards_apiCjihjnheyloFyCCU.html</t>
+  </si>
+  <si>
+    <t>/target/find_orchards_apiDbTLTKrXKfemqBnr.html</t>
+  </si>
+  <si>
+    <t>/target/find_orchards_apihbnDzkPpixGeNMZq.html</t>
+  </si>
+  <si>
+    <t>/target/find_orchards_apixhNKTbRpDrRwrjaN.html</t>
+  </si>
+  <si>
+    <t>/target/find_orchards_apiCJxGCzfWMousgHFQ.html</t>
+  </si>
+  <si>
+    <t>/target/find_orchards_apiVYvLGPRYQcANUVDc.html</t>
+  </si>
+  <si>
+    <t>/target/find_orchards_apinyuARAjgYZWRQCcA.html</t>
+  </si>
+  <si>
+    <t>/target/find_orchards_apizRkQGeONUXKmsJea.html</t>
+  </si>
+  <si>
+    <t>/target/find_orchards_apiHZosCeyuzAEPtAti.html</t>
+  </si>
+  <si>
+    <t>/target/find_orchards_apifAqyUZzJfpusoxso.html</t>
+  </si>
+  <si>
+    <t>/target/find_orchards_apiRWyupPLYjDgEPfub.html</t>
+  </si>
+  <si>
+    <t>/target/find_orchards_apidUGNIrPkwPLSjbNb.html</t>
+  </si>
+  <si>
+    <t>/target/find_orchards_apiDVAwTCuRzhlemGbA.html</t>
+  </si>
+  <si>
+    <t>/target/find_orchards_apiEePPTvMRgEOgvPmU.html</t>
+  </si>
+  <si>
+    <t>/target/find_orchards_apijKblNwxmOFQJWVwM.html</t>
+  </si>
+  <si>
+    <t>/target/find_orchards_apincBFnljIgoiJgrDR.html</t>
+  </si>
+  <si>
+    <t>/target/find_orchards_apiJOVHfDDTxQaqiUhG.html</t>
+  </si>
+  <si>
+    <t>/target/find_orchards_apioztojRJdLQFFWycu.html</t>
+  </si>
+  <si>
+    <t>/target/find_orchards_apieyGYqRBCVqCFEIGX.html</t>
+  </si>
+  <si>
+    <t>/target/find_orchards_apiTGZBCGkKHtQinVZQ.html</t>
+  </si>
+  <si>
+    <t>/target/find_orchards_apiIVevpXIVISZPhvVC.html</t>
+  </si>
+  <si>
+    <t>/target/find_orchards_apiCYvIjzKLRRtOIKEm.html</t>
+  </si>
+  <si>
+    <t>/target/find_orchards_apiRHKpQOpznzPXxhPr.html</t>
+  </si>
+  <si>
+    <t>/target/find_orchards_apiQlqwyUjohAHBJtMn.html</t>
+  </si>
+  <si>
+    <t>/target/find_orchards_apihSvZxQsDiJaxtxUS.html</t>
+  </si>
+  <si>
+    <t>/target/find_orchards_apireNsgxmgSAgLewyv.html</t>
+  </si>
+  <si>
+    <t>/target/find_orchards_apieIqEhzhGQmfTTyDU.html</t>
+  </si>
+  <si>
+    <t>/target/find_orchards_apinmAhTgDMTeLNyIxY.html</t>
+  </si>
+  <si>
+    <t>/target/find_orchards_apiDrhKkTXnkXbxbmzE.html</t>
+  </si>
+  <si>
+    <t>/target/find_orchards_apitRdSGEVXkRlHLcVi.html</t>
+  </si>
+  <si>
+    <t>/target/find_orchards_apiQDLUMtdlWOJPuMZl.html</t>
+  </si>
+  <si>
+    <t>/target/find_orchards_apiZscSMrXjBcWpCtjQ.html</t>
+  </si>
+  <si>
+    <t>/target/find_orchards_apieiyodUcbbzMdhGGE.html</t>
+  </si>
+  <si>
+    <t>/target/find_orchards_apitaUwXChHdQkFkXlO.html</t>
+  </si>
+  <si>
+    <t>/target/find_orchards_apiWqaIKgRzIeJdqaQN.html</t>
+  </si>
+  <si>
+    <t>/target/find_orchards_apiUuOfrEueKruobsOO.html</t>
+  </si>
+  <si>
+    <t>/target/find_orchards_apiidJRGhsGryBfcqic.html</t>
+  </si>
+  <si>
+    <t>/target/find_orchards_apicKXnElbzOlEreqsQ.html</t>
+  </si>
+  <si>
+    <t>/target/find_orchards_apiFxSvNiDppqvRSGWg.html</t>
+  </si>
+  <si>
+    <t>/target/find_orchards_apiLLWwEnVKycHxYmbw.html</t>
+  </si>
+  <si>
+    <t>/target/find_orchards_apiencBSOKXaZuXmhMu.html</t>
+  </si>
+  <si>
+    <t>/target/find_orchards_apiBOLUxkPEtdyNsIxT.html</t>
+  </si>
+  <si>
+    <t>/target/find_orchards_apiuZzBKRcUTYLlyAri.html</t>
+  </si>
+  <si>
+    <t>/target/find_orchards_apiJSGMtLGkBorNjUjz.html</t>
+  </si>
+  <si>
+    <t>/target/find_orchards_apiFlJmqLNEUvmxrcvb.html</t>
+  </si>
+  <si>
+    <t>/target/find_orchards_apiVwqKMjUlKRCgRAqK.html</t>
+  </si>
+  <si>
+    <t>/target/find_orchards_apieRBskxmkhvUKtHWA.html</t>
+  </si>
+  <si>
+    <t>/target/find_orchards_apiDnYJEzZgvEFUSQld.html</t>
+  </si>
+  <si>
+    <t>/target/find_orchards_apiWOsoHtUmUaKOqhUK.html</t>
+  </si>
+  <si>
+    <t>/target/find_orchards_apiTCoJtdIGhaWoUxis.html</t>
+  </si>
+  <si>
+    <t>/target/find_orchards_apibefXxWvSeBhcoMqL.html</t>
+  </si>
+  <si>
+    <t>/target/find_orchards_apiISHYPoHxBgegSegy.html</t>
+  </si>
+  <si>
+    <t>/target/find_orchards_apiqcMHBxpzZAiMuYFg.html</t>
+  </si>
+  <si>
+    <t>/target/find_orchards_apiIgRMSVDGUVHFJgnH.html</t>
+  </si>
+  <si>
+    <t>/target/find_orchards_apiBahOkrNJbmrjzgyw.html</t>
+  </si>
+  <si>
+    <t>/target/find_orchards_apigsioTPXiPJyiQxYz.html</t>
+  </si>
+  <si>
+    <t>/target/find_orchards_apiRtmoqiNvVpYtSzDY.html</t>
+  </si>
+  <si>
+    <t>/target/find_orchards_apirUtfGtKsnoHAFQcg.html</t>
+  </si>
+  <si>
+    <t>/target/find_orchards_apiyFmiDbrIeVGDNAvr.html</t>
+  </si>
+  <si>
+    <t>/target/find_orchards_apihzqHrMyddQdPlHOI.html</t>
   </si>
 </sst>
 </file>
@@ -2093,7 +2609,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>142</v>
+        <v>20</v>
       </c>
       <c r="C2" s="27" t="s">
         <v>19</v>
@@ -2110,7 +2626,7 @@
         <v>18</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>20</v>
+        <v>314</v>
       </c>
       <c r="C3" s="27"/>
       <c r="D3" s="30"/>

--- a/suitesNames/suiteNames.xlsx
+++ b/suitesNames/suiteNames.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="320">
   <si>
     <t>This document was exported from Numbers.  Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -989,6 +989,21 @@
   </si>
   <si>
     <t>/target/find_orchards_apihzqHrMyddQdPlHOI.html</t>
+  </si>
+  <si>
+    <t>/target/capital_bank_ui_smokeCnVpPnjAEhHSZUYP.html</t>
+  </si>
+  <si>
+    <t>/target/capital_bank_ui_smokewQkoayDSNehaUcJx.html</t>
+  </si>
+  <si>
+    <t>/target/capital_bank_ui_smokeKHaoDVQdroGjXngu.html</t>
+  </si>
+  <si>
+    <t>/target/capital_bank_ui_smokeQHTkfftiDnLtmkFW.html</t>
+  </si>
+  <si>
+    <t>/target/capital_bank_ui_smokeLfPBgUEGiAPfgYWC.html</t>
   </si>
 </sst>
 </file>
@@ -2609,7 +2624,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>20</v>
+        <v>319</v>
       </c>
       <c r="C2" s="27" t="s">
         <v>19</v>
@@ -2626,7 +2641,7 @@
         <v>18</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>314</v>
+        <v>20</v>
       </c>
       <c r="C3" s="27"/>
       <c r="D3" s="30"/>
